--- a/Role table.xlsx
+++ b/Role table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\OneDrive\Escritorio\Semestre 6\BD_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanp\OneDrive\Escritorio\Semestre 6\D_proyectOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -568,26 +568,26 @@
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -617,5 +617,6 @@
     <row r="29" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Role table.xlsx
+++ b/Role table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t xml:space="preserve">Role </t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Manages project planning, execution, and delivery, ensuring projects are completed on time and within budget.</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -148,11 +151,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,187 +442,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="78.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
